--- a/file.xlsx
+++ b/file.xlsx
@@ -91,9 +91,6 @@
     <t>г.Барнаул,ул.Гоголя,51</t>
   </si>
   <si>
-    <t>Данных нет</t>
-  </si>
-  <si>
     <t>XL-M-S (1)</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Факт показов                                          21-04.06 (15 суток)</t>
+  </si>
+  <si>
+    <t>Даты отчёта (2018-05-21 - 2018-06-04) не соответствуют целевому диапазону дат.</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C9" sqref="C9"/>
@@ -930,9 +930,7 @@
       <c r="M6" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="P6" s="15" t="n"/>
       <c r="Q6" s="14">
         <f>P6-M6</f>
         <v/>
@@ -949,18 +947,16 @@
         <v>12</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="M7" s="22">
         <f>M6</f>
         <v/>
       </c>
-      <c r="P7" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P7" s="15" t="n"/>
       <c r="Q7" s="14">
         <f>P7-M7</f>
         <v/>
@@ -977,18 +973,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="22">
         <f>M7</f>
         <v/>
       </c>
-      <c r="P8" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P8" s="15" t="n"/>
       <c r="Q8" s="14">
         <f>P8-M8</f>
         <v/>
@@ -1005,18 +999,16 @@
         <v>12</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="22">
         <f>M8</f>
         <v/>
       </c>
-      <c r="P9" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P9" s="15" t="n"/>
       <c r="Q9" s="14">
         <f>P9-M9</f>
         <v/>
@@ -1033,18 +1025,16 @@
         <v>12</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="22">
         <f>M9</f>
         <v/>
       </c>
-      <c r="P10" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P10" s="15" t="n"/>
       <c r="Q10" s="14">
         <f>P10-M10</f>
         <v/>
@@ -1064,15 +1054,13 @@
         <v>23</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="22">
         <f>M10</f>
         <v/>
       </c>
-      <c r="P11" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P11" s="15" t="n"/>
       <c r="Q11" s="14">
         <f>P11-M11</f>
         <v/>
@@ -1092,15 +1080,13 @@
         <v>23</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="22">
         <f>M11</f>
         <v/>
       </c>
-      <c r="P12" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P12" s="15" t="n"/>
       <c r="Q12" s="14">
         <f>P12-M12</f>
         <v/>
@@ -1120,15 +1106,13 @@
         <v>23</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M13" s="22">
         <f>M12</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P13" s="15" t="n"/>
       <c r="Q13" s="14">
         <f>P13-M13</f>
         <v/>
@@ -1148,15 +1132,13 @@
         <v>23</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" s="22">
         <f>M13</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P14" s="15" t="n"/>
       <c r="Q14" s="14">
         <f>P14-M14</f>
         <v/>
@@ -1201,10 +1183,10 @@
         <v>18</v>
       </c>
       <c r="M17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>21</v>
@@ -1229,10 +1211,8 @@
       <c r="M18" s="22" t="n">
         <v>5280</v>
       </c>
-      <c r="P18" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q18" s="33">
+      <c r="P18" s="15" t="n"/>
+      <c r="Q18" s="14">
         <f>P18-M18</f>
         <v/>
       </c>
@@ -1248,18 +1228,16 @@
         <v>12</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="M19" s="22">
         <f>M18</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P19" s="15" t="n"/>
       <c r="Q19" s="14">
         <f>P19-M19</f>
         <v/>
@@ -1276,18 +1254,16 @@
         <v>12</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20" s="22">
         <f>M19</f>
         <v/>
       </c>
-      <c r="P20" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P20" s="15" t="n"/>
       <c r="Q20" s="14">
         <f>P20-M20</f>
         <v/>
@@ -1304,18 +1280,16 @@
         <v>12</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M21" s="22">
         <f>M20</f>
         <v/>
       </c>
-      <c r="P21" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P21" s="15" t="n"/>
       <c r="Q21" s="14">
         <f>P21-M21</f>
         <v/>
@@ -1332,18 +1306,16 @@
         <v>12</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M22" s="22">
         <f>M21</f>
         <v/>
       </c>
-      <c r="P22" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P22" s="15" t="n"/>
       <c r="Q22" s="14">
         <f>P22-M22</f>
         <v/>
@@ -1363,15 +1335,13 @@
         <v>23</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="22">
         <f>M22</f>
         <v/>
       </c>
-      <c r="P23" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P23" s="15" t="n"/>
       <c r="Q23" s="14">
         <f>P23-M23</f>
         <v/>
@@ -1391,15 +1361,13 @@
         <v>23</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M24" s="22">
         <f>M23</f>
         <v/>
       </c>
-      <c r="P24" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P24" s="15" t="n"/>
       <c r="Q24" s="14">
         <f>P24-M24</f>
         <v/>
@@ -1419,15 +1387,13 @@
         <v>23</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="22">
         <f>M24</f>
         <v/>
       </c>
-      <c r="P25" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P25" s="15" t="n"/>
       <c r="Q25" s="14">
         <f>P25-M25</f>
         <v/>
@@ -1447,15 +1413,13 @@
         <v>23</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26" s="22">
         <f>M25</f>
         <v/>
       </c>
-      <c r="P26" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P26" s="15" t="n"/>
       <c r="Q26" s="14">
         <f>P26-M26</f>
         <v/>
@@ -1485,10 +1449,10 @@
         <v>18</v>
       </c>
       <c r="M29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>21</v>
@@ -1515,9 +1479,9 @@
         <v/>
       </c>
       <c r="P30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14">
+        <v>1919</v>
+      </c>
+      <c r="Q30" s="33">
         <f>P30-M30</f>
         <v/>
       </c>
@@ -1533,19 +1497,19 @@
         <v>12</v>
       </c>
       <c r="E31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="M31" s="22">
         <f>M30</f>
         <v/>
       </c>
       <c r="P31" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="14">
+        <v>1918</v>
+      </c>
+      <c r="Q31" s="33">
         <f>P31-M31</f>
         <v/>
       </c>
@@ -1561,19 +1525,19 @@
         <v>12</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32" s="22">
         <f>M31</f>
         <v/>
       </c>
       <c r="P32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="14">
+        <v>1915</v>
+      </c>
+      <c r="Q32" s="33">
         <f>P32-M32</f>
         <v/>
       </c>
@@ -1589,19 +1553,19 @@
         <v>12</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M33" s="22">
         <f>M32</f>
         <v/>
       </c>
       <c r="P33" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="14">
+        <v>1919</v>
+      </c>
+      <c r="Q33" s="33">
         <f>P33-M33</f>
         <v/>
       </c>
@@ -1617,19 +1581,19 @@
         <v>12</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34" s="22">
         <f>M33</f>
         <v/>
       </c>
       <c r="P34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14">
+        <v>1900</v>
+      </c>
+      <c r="Q34" s="33">
         <f>P34-M34</f>
         <v/>
       </c>
@@ -1648,16 +1612,16 @@
         <v>23</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M35" s="22">
         <f>M34</f>
         <v/>
       </c>
       <c r="P35" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14">
+        <v>1918</v>
+      </c>
+      <c r="Q35" s="33">
         <f>P35-M35</f>
         <v/>
       </c>
@@ -1676,16 +1640,16 @@
         <v>23</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36" s="22">
         <f>M35</f>
         <v/>
       </c>
       <c r="P36" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14">
+        <v>1918</v>
+      </c>
+      <c r="Q36" s="33">
         <f>P36-M36</f>
         <v/>
       </c>
@@ -1704,16 +1668,16 @@
         <v>23</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M37" s="22">
         <f>M36</f>
         <v/>
       </c>
       <c r="P37" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="14">
+        <v>1919</v>
+      </c>
+      <c r="Q37" s="33">
         <f>P37-M37</f>
         <v/>
       </c>
@@ -1732,16 +1696,16 @@
         <v>23</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M38" s="22">
         <f>M37</f>
         <v/>
       </c>
       <c r="P38" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="14">
+        <v>1918</v>
+      </c>
+      <c r="Q38" s="33">
         <f>P38-M38</f>
         <v/>
       </c>
@@ -1753,6 +1717,16 @@
       <c r="Q39" s="19">
         <f>SUM(Q30:Q38)</f>
         <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="0" showSheetTabs="0" showVerticalScroll="0" tabRatio="600" visibility="visible" windowHeight="8145" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="0" showSheetTabs="0" showVerticalScroll="0" tabRatio="600" visibility="visible" windowHeight="7752" windowWidth="20496" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АЗС" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Клиент</t>
   </si>
@@ -116,21 +116,6 @@
   </si>
   <si>
     <t>г. Барнаул, ул. Правобережный тракт, поворот на с. Санниково</t>
-  </si>
-  <si>
-    <t>Целевое значение показов 21-31.05. (11 суток)</t>
-  </si>
-  <si>
-    <t>Факт показов                                           21-31.05 (11 суток)</t>
-  </si>
-  <si>
-    <t>Целевое значение показов 21-04.06. (15 суток)</t>
-  </si>
-  <si>
-    <t>Факт показов                                          21-04.06 (15 суток)</t>
-  </si>
-  <si>
-    <t>Даты отчёта (2018-05-21 - 2018-06-04) не соответствуют целевому диапазону дат.</t>
   </si>
 </sst>
 </file>
@@ -212,7 +197,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -249,12 +234,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9900"/>
-        <bgColor rgb="00FF9900"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -385,7 +364,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -411,47 +390,50 @@
     <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,25 +441,10 @@
     <xf applyAlignment="1" borderId="8" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,71 +748,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.85546875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11.85546875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="24.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.85546875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="9.140625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.42578125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="12.28515625"/>
-    <col customWidth="1" max="9" min="8" style="1" width="14.140625"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13.42578125"/>
-    <col customWidth="1" max="11" min="11" style="1" width="7.7109375"/>
-    <col customWidth="1" max="12" min="12" style="1" width="10.42578125"/>
-    <col customWidth="1" max="15" min="13" style="1" width="9.140625"/>
-    <col customWidth="1" max="16" min="16" style="1" width="26.28515625"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13.7109375"/>
-    <col customWidth="1" max="16384" min="18" style="1" width="9.140625"/>
+    <col customWidth="1" max="1" min="1" style="1" width="5.88671875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="11.88671875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="24.5546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.88671875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="9.109375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10.44140625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="12.33203125"/>
+    <col customWidth="1" max="9" min="8" style="1" width="14.109375"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13.44140625"/>
+    <col customWidth="1" max="11" min="11" style="1" width="7.6640625"/>
+    <col customWidth="1" max="12" min="12" style="1" width="10.44140625"/>
+    <col customWidth="1" max="15" min="13" style="1" width="9.109375"/>
+    <col customWidth="1" max="16" min="16" style="1" width="26.33203125"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13.6640625"/>
+    <col customWidth="1" max="16384" min="18" style="1" width="9.109375"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.95" r="1" s="3" spans="1:17">
+    <row customFormat="1" customHeight="1" ht="33.9" r="1" s="3" spans="1:17">
       <c r="A1" s="2" t="n"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="30" r="2" s="3" spans="1:17">
       <c r="A2" s="2" t="n"/>
     </row>
-    <row r="3" spans="1:17">
+    <row customHeight="1" ht="14.4" r="3" spans="1:17">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -886,34 +853,34 @@
     </row>
     <row r="4" spans="1:17"/>
     <row customHeight="1" ht="30.75" r="5" spans="1:17">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row customHeight="1" ht="14.4" r="6" spans="1:17">
       <c r="B6" s="8" t="n">
-        <v>13007</v>
+        <v>32200</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -921,24 +888,26 @@
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="22" t="n">
+      <c r="M6" s="28" t="n">
         <v>960</v>
       </c>
-      <c r="P6" s="15" t="n"/>
-      <c r="Q6" s="14">
+      <c r="P6" s="13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="Q6" s="12">
         <f>P6-M6</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row customHeight="1" ht="14.4" r="7" spans="1:17">
       <c r="B7" s="8" t="n">
-        <v>13108</v>
+        <v>32202</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>22</v>
@@ -946,23 +915,25 @@
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="28">
         <f>M6</f>
         <v/>
       </c>
-      <c r="P7" s="15" t="n"/>
-      <c r="Q7" s="14">
+      <c r="P7" s="13" t="n">
+        <v>1918</v>
+      </c>
+      <c r="Q7" s="12">
         <f>P7-M7</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row customHeight="1" ht="14.4" r="8" spans="1:17">
       <c r="B8" s="8" t="n">
         <v>32205</v>
       </c>
@@ -972,23 +943,25 @@
       <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="28">
         <f>M7</f>
         <v/>
       </c>
-      <c r="P8" s="15" t="n"/>
-      <c r="Q8" s="14">
+      <c r="P8" s="13" t="n">
+        <v>1915</v>
+      </c>
+      <c r="Q8" s="12">
         <f>P8-M8</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row customHeight="1" ht="14.4" r="9" spans="1:17">
       <c r="B9" s="8" t="n">
         <v>32210</v>
       </c>
@@ -998,23 +971,25 @@
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="28">
         <f>M8</f>
         <v/>
       </c>
-      <c r="P9" s="15" t="n"/>
-      <c r="Q9" s="14">
+      <c r="P9" s="13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="Q9" s="12">
         <f>P9-M9</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row customHeight="1" ht="14.4" r="10" spans="1:17">
       <c r="B10" s="8" t="n">
         <v>32213</v>
       </c>
@@ -1024,23 +999,25 @@
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="28">
         <f>M9</f>
         <v/>
       </c>
-      <c r="P10" s="15" t="n"/>
-      <c r="Q10" s="14">
+      <c r="P10" s="13" t="n">
+        <v>1900</v>
+      </c>
+      <c r="Q10" s="12">
         <f>P10-M10</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row customHeight="1" ht="14.4" r="11" spans="1:17">
       <c r="B11" s="8" t="n">
         <v>32218</v>
       </c>
@@ -1050,23 +1027,25 @@
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="28">
         <f>M10</f>
         <v/>
       </c>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="14">
+      <c r="P11" s="13" t="n">
+        <v>1918</v>
+      </c>
+      <c r="Q11" s="12">
         <f>P11-M11</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row customHeight="1" ht="14.4" r="12" spans="1:17">
       <c r="B12" s="8" t="n">
         <v>32219</v>
       </c>
@@ -1076,23 +1055,25 @@
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="28">
         <f>M11</f>
         <v/>
       </c>
-      <c r="P12" s="15" t="n"/>
-      <c r="Q12" s="14">
+      <c r="P12" s="13" t="n">
+        <v>1918</v>
+      </c>
+      <c r="Q12" s="12">
         <f>P12-M12</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row customHeight="1" ht="14.4" r="13" spans="1:17">
       <c r="B13" s="8" t="n">
         <v>32220</v>
       </c>
@@ -1102,23 +1083,25 @@
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="28">
         <f>M12</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="14">
+      <c r="P13" s="13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="Q13" s="12">
         <f>P13-M13</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row customHeight="1" ht="14.4" r="14" spans="1:17">
       <c r="B14" s="8" t="n">
         <v>32221</v>
       </c>
@@ -1128,621 +1111,56 @@
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="28">
         <f>M13</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="14">
+      <c r="P14" s="13" t="n">
+        <v>1918</v>
+      </c>
+      <c r="Q14" s="12">
         <f>P14-M14</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="15" spans="1:17">
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="18" t="n"/>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="18" t="n"/>
-      <c r="H15" s="18" t="n"/>
-      <c r="I15" s="18" t="n"/>
-      <c r="J15" s="18" t="n"/>
-      <c r="K15" s="18" t="n"/>
-      <c r="L15" s="18" t="n"/>
-      <c r="M15" s="18" t="n"/>
-      <c r="N15" s="18" t="n"/>
-      <c r="O15" s="18" t="n"/>
-      <c r="P15" s="18" t="n"/>
-      <c r="Q15" s="20">
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="14" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="16" t="n"/>
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="16" t="n"/>
+      <c r="J15" s="16" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="16" t="n"/>
+      <c r="M15" s="16" t="n"/>
+      <c r="N15" s="16" t="n"/>
+      <c r="O15" s="16" t="n"/>
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17">
         <f>SUM(Q6:Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17"/>
-    <row customHeight="1" ht="30" r="17" spans="1:17">
-      <c r="B17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="8" t="n">
-        <v>32200</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="22" t="n">
-        <v>5280</v>
-      </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="14">
-        <f>P18-M18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="8" t="n">
-        <v>32202</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="22">
-        <f>M18</f>
-        <v/>
-      </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="14">
-        <f>P19-M19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="8" t="n">
-        <v>32205</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="22">
-        <f>M19</f>
-        <v/>
-      </c>
-      <c r="P20" s="15" t="n"/>
-      <c r="Q20" s="14">
-        <f>P20-M20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" s="8" t="n">
-        <v>32210</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="22">
-        <f>M20</f>
-        <v/>
-      </c>
-      <c r="P21" s="15" t="n"/>
-      <c r="Q21" s="14">
-        <f>P21-M21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="B22" s="8" t="n">
-        <v>32213</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="22">
-        <f>M21</f>
-        <v/>
-      </c>
-      <c r="P22" s="15" t="n"/>
-      <c r="Q22" s="14">
-        <f>P22-M22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="B23" s="8" t="n">
-        <v>32218</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="22">
-        <f>M22</f>
-        <v/>
-      </c>
-      <c r="P23" s="15" t="n"/>
-      <c r="Q23" s="14">
-        <f>P23-M23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="B24" s="8" t="n">
-        <v>32219</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="22">
-        <f>M23</f>
-        <v/>
-      </c>
-      <c r="P24" s="15" t="n"/>
-      <c r="Q24" s="14">
-        <f>P24-M24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="8" t="n">
-        <v>32220</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="22">
-        <f>M24</f>
-        <v/>
-      </c>
-      <c r="P25" s="15" t="n"/>
-      <c r="Q25" s="14">
-        <f>P25-M25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="8" t="n">
-        <v>32221</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="22">
-        <f>M25</f>
-        <v/>
-      </c>
-      <c r="P26" s="15" t="n"/>
-      <c r="Q26" s="14">
-        <f>P26-M26</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" spans="1:17">
-      <c r="Q27" s="19">
-        <f>SUM(Q18:Q26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:17"/>
-    <row customHeight="1" ht="30" r="29" spans="1:17">
-      <c r="B29" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="B30" s="8" t="n">
-        <v>32200</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="22">
-        <f>15*480</f>
-        <v/>
-      </c>
-      <c r="P30" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q30" s="33">
-        <f>P30-M30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="B31" s="8" t="n">
-        <v>32202</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="22">
-        <f>M30</f>
-        <v/>
-      </c>
-      <c r="P31" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q31" s="33">
-        <f>P31-M31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="B32" s="8" t="n">
-        <v>32205</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="22">
-        <f>M31</f>
-        <v/>
-      </c>
-      <c r="P32" s="15" t="n">
-        <v>1915</v>
-      </c>
-      <c r="Q32" s="33">
-        <f>P32-M32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="B33" s="8" t="n">
-        <v>32210</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="22">
-        <f>M32</f>
-        <v/>
-      </c>
-      <c r="P33" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q33" s="33">
-        <f>P33-M33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="B34" s="8" t="n">
-        <v>32213</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" s="22">
-        <f>M33</f>
-        <v/>
-      </c>
-      <c r="P34" s="15" t="n">
-        <v>1900</v>
-      </c>
-      <c r="Q34" s="33">
-        <f>P34-M34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="B35" s="8" t="n">
-        <v>32218</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="22">
-        <f>M34</f>
-        <v/>
-      </c>
-      <c r="P35" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q35" s="33">
-        <f>P35-M35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="B36" s="8" t="n">
-        <v>32219</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="22">
-        <f>M35</f>
-        <v/>
-      </c>
-      <c r="P36" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q36" s="33">
-        <f>P36-M36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="B37" s="8" t="n">
-        <v>32220</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="22">
-        <f>M36</f>
-        <v/>
-      </c>
-      <c r="P37" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q37" s="33">
-        <f>P37-M37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="B38" s="8" t="n">
-        <v>32221</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="22">
-        <f>M37</f>
-        <v/>
-      </c>
-      <c r="P38" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q38" s="33">
-        <f>P38-M38</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="39" spans="1:17">
-      <c r="N39" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q39" s="19">
-        <f>SUM(Q30:Q38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
+  <mergeCells count="41">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1763,75 +1181,18 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="0" showSheetTabs="0" showVerticalScroll="0" tabRatio="600" visibility="visible" windowHeight="7752" windowWidth="20496" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11820" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АЗС" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Клиент</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Барнаул</t>
   </si>
   <si>
-    <t>21.05-04.06</t>
+    <t>01.04-04.06</t>
   </si>
   <si>
     <t>АГАС_15 сек_21.05 - 04.06.2018_32ХХХ</t>
@@ -95,27 +95,6 @@
   </si>
   <si>
     <t>г.Барнаул, ул.Сельскохозяйственная, 1а</t>
-  </si>
-  <si>
-    <t>г.Барнаул, пер. Шевченко,177-б</t>
-  </si>
-  <si>
-    <t>г.Барнаул, пр.Космонавтов,18а</t>
-  </si>
-  <si>
-    <t>г.Барнаул, ул. Парфенова,21</t>
-  </si>
-  <si>
-    <t>г. Барнаул, пр-т. Калинина, 37А</t>
-  </si>
-  <si>
-    <t>г. Барнаул, ул. Власихинская, 125</t>
-  </si>
-  <si>
-    <t>г. Барнаул, ул. Малахова 107 Д</t>
-  </si>
-  <si>
-    <t>г. Барнаул, ул. Правобережный тракт, поворот на с. Санниково</t>
   </si>
 </sst>
 </file>
@@ -126,7 +105,7 @@
     <numFmt formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-" numFmtId="164"/>
     <numFmt formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-" numFmtId="165"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -134,13 +113,6 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -151,9 +123,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="0"/>
       <sz val="11"/>
     </font>
@@ -168,25 +157,8 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -235,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -301,41 +273,8 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -359,99 +298,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1" locked="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="4" fillId="4" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle builtinId="3" name="Финансовый" xfId="2"/>
+    <cellStyle builtinId="3" name="Финансовый" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -468,39 +395,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,166 +506,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -748,71 +651,68 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E10" sqref="E10:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.88671875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11.88671875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="24.5546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.88671875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="9.109375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.44140625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="12.33203125"/>
-    <col customWidth="1" max="9" min="8" style="1" width="14.109375"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13.44140625"/>
-    <col customWidth="1" max="11" min="11" style="1" width="7.6640625"/>
-    <col customWidth="1" max="12" min="12" style="1" width="10.44140625"/>
-    <col customWidth="1" max="15" min="13" style="1" width="9.109375"/>
-    <col customWidth="1" max="16" min="16" style="1" width="26.33203125"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13.6640625"/>
-    <col customWidth="1" max="16384" min="18" style="1" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="20.85546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="23.28515625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="30"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="21.140625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="25.7109375"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.9" r="1" s="3" spans="1:17">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="24" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="21" t="n"/>
+      <c r="Q1" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="30" r="2" s="3" spans="1:17">
-      <c r="A2" s="2" t="n"/>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="n"/>
+      <c r="P2" s="21" t="n"/>
+      <c r="Q2" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="14.4" r="3" spans="1:17">
+    <row r="3" spans="1:17">
+      <c r="A3" s="18" t="n"/>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -850,351 +750,156 @@
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="18" t="n"/>
     </row>
-    <row r="4" spans="1:17"/>
-    <row customHeight="1" ht="30.75" r="5" spans="1:17">
-      <c r="B5" s="22" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="18" t="n"/>
+      <c r="B4" s="18" t="n"/>
+      <c r="C4" s="18" t="n"/>
+      <c r="D4" s="18" t="n"/>
+      <c r="E4" s="18" t="n"/>
+      <c r="F4" s="18" t="n"/>
+      <c r="G4" s="18" t="n"/>
+      <c r="H4" s="18" t="n"/>
+      <c r="I4" s="18" t="n"/>
+      <c r="J4" s="18" t="n"/>
+      <c r="K4" s="18" t="n"/>
+      <c r="L4" s="18" t="n"/>
+      <c r="M4" s="18" t="n"/>
+      <c r="N4" s="18" t="n"/>
+      <c r="O4" s="18" t="n"/>
+      <c r="P4" s="18" t="n"/>
+      <c r="Q4" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="60" r="5" spans="1:17">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="6" spans="1:17">
-      <c r="B6" s="8" t="n">
-        <v>32200</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="18" t="n"/>
+      <c r="B6" s="11" t="n">
+        <v>13007</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="28" t="n">
+      <c r="M6" s="19" t="n">
         <v>960</v>
       </c>
-      <c r="P6" s="13" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="P6" s="12" t="n">
+        <v>24033</v>
+      </c>
+      <c r="Q6" s="13">
         <f>P6-M6</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7" spans="1:17">
-      <c r="B7" s="8" t="n">
-        <v>32202</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="18" t="n"/>
+      <c r="B7" s="11" t="n">
+        <v>13108</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="19">
         <f>M6</f>
         <v/>
       </c>
-      <c r="P7" s="13" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q7" s="12">
+      <c r="P7" s="12" t="n">
+        <v>5421</v>
+      </c>
+      <c r="Q7" s="13">
         <f>P7-M7</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="8" spans="1:17">
-      <c r="B8" s="8" t="n">
-        <v>32205</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="28">
-        <f>M7</f>
-        <v/>
-      </c>
-      <c r="P8" s="13" t="n">
-        <v>1915</v>
-      </c>
-      <c r="Q8" s="12">
-        <f>P8-M8</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="9" spans="1:17">
-      <c r="B9" s="8" t="n">
-        <v>32210</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="28">
-        <f>M8</f>
-        <v/>
-      </c>
-      <c r="P9" s="13" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q9" s="12">
-        <f>P9-M9</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="10" spans="1:17">
-      <c r="B10" s="8" t="n">
-        <v>32213</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="28">
-        <f>M9</f>
-        <v/>
-      </c>
-      <c r="P10" s="13" t="n">
-        <v>1900</v>
-      </c>
-      <c r="Q10" s="12">
-        <f>P10-M10</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="11" spans="1:17">
-      <c r="B11" s="8" t="n">
-        <v>32218</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="28">
-        <f>M10</f>
-        <v/>
-      </c>
-      <c r="P11" s="13" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q11" s="12">
-        <f>P11-M11</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="12" spans="1:17">
-      <c r="B12" s="8" t="n">
-        <v>32219</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="28">
-        <f>M11</f>
-        <v/>
-      </c>
-      <c r="P12" s="13" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q12" s="12">
-        <f>P12-M12</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="13" spans="1:17">
-      <c r="B13" s="8" t="n">
-        <v>32220</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="28">
-        <f>M12</f>
-        <v/>
-      </c>
-      <c r="P13" s="13" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q13" s="12">
-        <f>P13-M13</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="14" spans="1:17">
-      <c r="B14" s="8" t="n">
-        <v>32221</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="28">
-        <f>M13</f>
-        <v/>
-      </c>
-      <c r="P14" s="13" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q14" s="12">
-        <f>P14-M14</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" spans="1:17">
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="16" t="n"/>
-      <c r="F15" s="16" t="n"/>
-      <c r="G15" s="16" t="n"/>
-      <c r="H15" s="16" t="n"/>
-      <c r="I15" s="16" t="n"/>
-      <c r="J15" s="16" t="n"/>
-      <c r="K15" s="16" t="n"/>
-      <c r="L15" s="16" t="n"/>
-      <c r="M15" s="16" t="n"/>
-      <c r="N15" s="16" t="n"/>
-      <c r="O15" s="16" t="n"/>
-      <c r="P15" s="16" t="n"/>
-      <c r="Q15" s="17">
-        <f>SUM(Q6:Q14)</f>
+    <row customHeight="1" ht="15.75" r="8" spans="1:17">
+      <c r="A8" s="18" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="15" t="n"/>
+      <c r="F8" s="15" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+      <c r="L8" s="15" t="n"/>
+      <c r="M8" s="15" t="n"/>
+      <c r="N8" s="15" t="n"/>
+      <c r="O8" s="15" t="n"/>
+      <c r="P8" s="15" t="n"/>
+      <c r="Q8" s="16">
+        <f>SUM(Q6:Q7)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
+  <mergeCells count="20">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:O2"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>